--- a/ランドネット/Daietto_no_mori/Daietto_no_mori/datafile/home_data.xlsx
+++ b/ランドネット/Daietto_no_mori/Daietto_no_mori/datafile/home_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,20 @@
         <v>2299518.08</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>12098593.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12098593.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
